--- a/Parqueaderosv3/datos_salida/analisis_estacionamiento/oferta_llegadas.xlsx
+++ b/Parqueaderosv3/datos_salida/analisis_estacionamiento/oferta_llegadas.xlsx
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
@@ -1453,19 +1453,19 @@
         <v>13</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1583,7 +1583,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
@@ -1611,7 +1611,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>72</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1698,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>33</v>
@@ -2076,7 +2076,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>3</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2132,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>26</v>
@@ -2141,7 +2141,7 @@
         <v>29</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H32" s="5" t="n">
         <v>0</v>
@@ -2380,19 +2380,19 @@
         <v>5</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>68</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>8</v>
@@ -2482,7 +2482,7 @@
         <v>5</v>
       </c>
       <c r="G43" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H43" s="5" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>45</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>21</v>
@@ -2578,7 +2578,7 @@
         <v>26</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>38</v>
@@ -3213,7 +3213,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -3430,7 +3430,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>76</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>7</v>
@@ -3693,7 +3693,7 @@
         <v>40</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -3802,7 +3802,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>0</v>
@@ -3811,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I29" s="5" t="n">
         <v>3</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I30" s="5" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>12</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -3895,7 +3895,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H32" s="5" t="n">
         <v>5</v>
@@ -4081,7 +4081,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="5" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>29</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H42" s="5" t="n">
         <v>7</v>
@@ -4360,7 +4360,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H47" s="5" t="n">
         <v>3</v>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H52" s="5" t="n">
         <v>25</v>
@@ -5011,7 +5011,7 @@
         <v>10</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E68" s="5" t="n">
         <v>0</v>
@@ -5020,13 +5020,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="5" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -5042,7 +5042,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E69" s="5" t="n">
         <v>0</v>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="5" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H69" s="5" t="n">
         <v>22</v>
@@ -5166,7 +5166,7 @@
         <v>15</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E73" s="5" t="n">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="5" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H73" s="5" t="n">
         <v>33</v>
@@ -5228,7 +5228,7 @@
         <v>15</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E75" s="5" t="n">
         <v>0</v>
@@ -5237,13 +5237,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H75" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I75" s="5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76">
@@ -5336,7 +5336,7 @@
         <v>10</v>
       </c>
       <c r="I78" s="5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
@@ -5352,7 +5352,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E79" s="5" t="n">
         <v>0</v>
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="5" t="n">
         <v>0</v>
@@ -5414,7 +5414,7 @@
         <v>15</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E81" s="5" t="n">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="5" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>10</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E86" s="5" t="n">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H86" s="5" t="n">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="5" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90">
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H91" s="5" t="n">
         <v>1</v>
@@ -5755,7 +5755,7 @@
         <v>15</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E92" s="5" t="n">
         <v>0</v>
@@ -6030,7 +6030,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0</v>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>0</v>
@@ -6442,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" s="5" t="n">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58" s="5" t="n">
         <v>0</v>
@@ -7620,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H58" s="5" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
         <v>15</v>
       </c>
       <c r="D59" s="5" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E59" s="5" t="n">
         <v>0</v>
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H59" s="5" t="n">
         <v>0</v>
@@ -7673,7 +7673,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E60" s="5" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H60" s="5" t="n">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E78" s="5" t="n">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H78" s="5" t="n">
         <v>0</v>
@@ -8568,7 +8568,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>13</v>
@@ -8577,7 +8577,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>0</v>
@@ -8633,7 +8633,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>25</v>
@@ -8642,7 +8642,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
@@ -8949,7 +8949,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>0</v>
@@ -8974,7 +8974,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>3</v>
@@ -8983,7 +8983,7 @@
         <v>37</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>52</v>
@@ -9073,7 +9073,7 @@
         <v>33</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>0</v>
@@ -9259,7 +9259,7 @@
         <v>27</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>7</v>
@@ -9355,7 +9355,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="5" t="n">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>143</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -9498,7 +9498,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>1</v>
@@ -9507,7 +9507,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="5" t="n">
         <v>0</v>
@@ -9808,7 +9808,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>14</v>
@@ -9817,7 +9817,7 @@
         <v>9</v>
       </c>
       <c r="G46" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H46" s="5" t="n">
         <v>0</v>
@@ -9870,19 +9870,19 @@
         <v>10</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F48" s="5" t="n">
         <v>9</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="5" t="n">
         <v>0</v>
@@ -10096,7 +10096,7 @@
         <v>8</v>
       </c>
       <c r="G55" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55" s="5" t="n">
         <v>0</v>
@@ -10251,7 +10251,7 @@
         <v>7</v>
       </c>
       <c r="G60" s="5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H60" s="5" t="n">
         <v>0</v>
@@ -10400,7 +10400,7 @@
         <v>65</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F65" s="5" t="n">
         <v>10</v>
@@ -10409,7 +10409,7 @@
         <v>5</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="5" t="n">
         <v>0</v>
@@ -10459,7 +10459,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E67" s="5" t="n">
         <v>52</v>
@@ -10468,7 +10468,7 @@
         <v>33</v>
       </c>
       <c r="G67" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H67" s="5" t="n">
         <v>0</v>
@@ -10617,7 +10617,7 @@
         <v>57</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F72" s="5" t="n">
         <v>9</v>
@@ -10626,7 +10626,7 @@
         <v>12</v>
       </c>
       <c r="H72" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="5" t="n">
         <v>0</v>
@@ -10778,7 +10778,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="5" t="n">
         <v>0</v>
@@ -10800,7 +10800,7 @@
         <v>10</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E78" s="5" t="n">
         <v>15</v>
@@ -10809,7 +10809,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H78" s="5" t="n">
         <v>0</v>
@@ -11265,7 +11265,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E93" s="5" t="n">
         <v>2</v>
@@ -11274,7 +11274,7 @@
         <v>2</v>
       </c>
       <c r="G93" s="5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H93" s="5" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>20</v>
       </c>
       <c r="D94" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" s="5" t="n">
         <v>2</v>
@@ -11305,7 +11305,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="5" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H94" s="5" t="n">
         <v>0</v>
@@ -11451,7 +11451,7 @@
         <v>5</v>
       </c>
       <c r="D99" s="5" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E99" s="5" t="n">
         <v>4</v>
@@ -11460,7 +11460,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" s="5" t="n">
         <v>0</v>
